--- a/CS 411 - UI Validation.xlsx
+++ b/CS 411 - UI Validation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
   <si>
     <t>TestID</t>
   </si>
@@ -30,6 +30,21 @@
   </si>
   <si>
     <t>ui.2</t>
+  </si>
+  <si>
+    <t>Temporary link to proceed to home page, but doesn't actually logs in user</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ui.3</t>
+  </si>
+  <si>
+    <t>Does not go to "join". Need to implement page</t>
   </si>
   <si>
     <r>
@@ -49,155 +64,269 @@
     </r>
   </si>
   <si>
-    <t>Temporary link to proceed to home page, but doesn't actually logs in user</t>
+    <t>UI Element</t>
+  </si>
+  <si>
+    <t>Expected Function</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>"Log in" button (appears when not logged into spotify)</t>
+  </si>
+  <si>
+    <t>Opens spotify log in (logs in user)</t>
+  </si>
+  <si>
+    <t>ui.1</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>"Home" button (appears when logged into spotify already)</t>
+  </si>
+  <si>
+    <t>Goes to home page</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>"Join" button</t>
+  </si>
+  <si>
+    <t>Goes to guest page</t>
   </si>
   <si>
     <t>Stephanie</t>
   </si>
   <si>
-    <t>ui.3</t>
-  </si>
-  <si>
-    <t>Does not go to "join". Need to implement page</t>
-  </si>
-  <si>
     <t>ui.4</t>
   </si>
   <si>
     <t>Does not go to "host". Need to implement page</t>
   </si>
   <si>
+    <t>"Host" button</t>
+  </si>
+  <si>
+    <t>Goes to host page</t>
+  </si>
+  <si>
     <t>ui.5</t>
   </si>
   <si>
     <t>Does open side bar, but when hovering over, it doesn't appear "clickable"</t>
   </si>
   <si>
+    <t>menu button</t>
+  </si>
+  <si>
+    <t>Opens side bar</t>
+  </si>
+  <si>
     <t>ui.10</t>
   </si>
   <si>
+    <t>home(side bar)</t>
+  </si>
+  <si>
+    <t>"Home"</t>
+  </si>
+  <si>
     <t>Temporary link to proceed to index page, but doesn't actually logs out user</t>
   </si>
   <si>
-    <t>UI Element</t>
-  </si>
-  <si>
-    <t>Expected Function</t>
-  </si>
-  <si>
-    <t>Test ID</t>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>"Log in" button</t>
-  </si>
-  <si>
-    <t>Go to login page</t>
-  </si>
-  <si>
-    <t>ui.1</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>Logs in, proceeds to home page</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>"Join" button</t>
-  </si>
-  <si>
-    <t>Goes to join page</t>
-  </si>
-  <si>
-    <t>"Host" button</t>
-  </si>
-  <si>
-    <t>Goes to host page</t>
-  </si>
-  <si>
-    <t>menu button</t>
-  </si>
-  <si>
-    <t>Opens side bar</t>
-  </si>
-  <si>
-    <t>home(side bar)</t>
-  </si>
-  <si>
-    <t>"Home"</t>
-  </si>
-  <si>
-    <t>Goes to home page</t>
-  </si>
-  <si>
     <t>ui.6</t>
   </si>
   <si>
     <t>home (side bar)</t>
   </si>
   <si>
+    <t>"Log Out"</t>
+  </si>
+  <si>
+    <t>Logs out user, proceeds to index page</t>
+  </si>
+  <si>
+    <t>x button</t>
+  </si>
+  <si>
+    <t>Closes side bar</t>
+  </si>
+  <si>
+    <t>ui.11</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>"Submit" button</t>
+  </si>
+  <si>
+    <t>Submits inputted session name, goes to loading page.</t>
+  </si>
+  <si>
+    <t>ui.12</t>
+  </si>
+  <si>
+    <t>ui.13</t>
+  </si>
+  <si>
+    <t>host (side bar)</t>
+  </si>
+  <si>
+    <t>"End Session"</t>
+  </si>
+  <si>
+    <t>Removes session name from dictionary, redirects to home</t>
+  </si>
+  <si>
+    <t>ui.14</t>
+  </si>
+  <si>
+    <t>ui.15</t>
+  </si>
+  <si>
+    <t>loading</t>
+  </si>
+  <si>
+    <t>"Begin Session"</t>
+  </si>
+  <si>
+    <t>Redirects to room page</t>
+  </si>
+  <si>
+    <t>ui.16</t>
+  </si>
+  <si>
+    <t>ui.22</t>
+  </si>
+  <si>
+    <t>loading (side bar)</t>
+  </si>
+  <si>
+    <t>ui.23</t>
+  </si>
+  <si>
+    <t>ui.24</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>Submits inputted session name, goes to room page (if session exists in dictionary)</t>
+  </si>
+  <si>
+    <t>ui.17</t>
+  </si>
+  <si>
+    <t>ui.18</t>
+  </si>
+  <si>
+    <t>guest (side bar)</t>
+  </si>
+  <si>
+    <t>ui.19</t>
+  </si>
+  <si>
+    <t>"Log out"</t>
+  </si>
+  <si>
+    <t>ui.20</t>
+  </si>
+  <si>
+    <t>ui.21</t>
+  </si>
+  <si>
+    <t>room (as host)</t>
+  </si>
+  <si>
+    <t>Play button</t>
+  </si>
+  <si>
+    <t>Plays music from spotify</t>
+  </si>
+  <si>
+    <t>ui.25</t>
+  </si>
+  <si>
+    <t>Pause button</t>
+  </si>
+  <si>
+    <t>Pauses music from spotify</t>
+  </si>
+  <si>
+    <t>ui.26</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>ui.27</t>
+  </si>
+  <si>
+    <t>Goes to room page</t>
+  </si>
+  <si>
+    <t>ui.28</t>
+  </si>
+  <si>
     <t>"Session info"</t>
   </si>
   <si>
     <t>Goes to info page</t>
   </si>
   <si>
-    <t>ui.7</t>
-  </si>
-  <si>
-    <t>"Spotify"</t>
-  </si>
-  <si>
-    <t>Goes to spotify page</t>
-  </si>
-  <si>
-    <t>ui.8</t>
-  </si>
-  <si>
-    <t>"YouTube"</t>
-  </si>
-  <si>
-    <t>Goes to youtube page</t>
-  </si>
-  <si>
-    <t>ui.9</t>
-  </si>
-  <si>
-    <t>"Log Out"</t>
-  </si>
-  <si>
-    <t>Logs out user, proceeds to index page</t>
-  </si>
-  <si>
-    <t>x button</t>
-  </si>
-  <si>
-    <t>Closes side bar</t>
-  </si>
-  <si>
-    <t>ui.11</t>
+    <t>ui.29</t>
+  </si>
+  <si>
+    <t>"End session"</t>
+  </si>
+  <si>
+    <t>Removes session id and host, goes to home page</t>
+  </si>
+  <si>
+    <t>ui.30</t>
+  </si>
+  <si>
+    <t>room (as guest)</t>
+  </si>
+  <si>
+    <t>"Exit session"</t>
+  </si>
+  <si>
+    <t>Removes guest from session, goes to home page</t>
+  </si>
+  <si>
+    <t>ui.31</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Displays session info</t>
+  </si>
+  <si>
+    <t>ui.32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -208,12 +337,14 @@
     </font>
     <font/>
     <font>
-      <b/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FF980000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -244,7 +375,13 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -255,11 +392,11 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -269,111 +406,112 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="16.43"/>
     <col customWidth="1" min="2" max="2" width="61.43"/>
-    <col customWidth="1" min="3" max="3" width="33.43"/>
+    <col customWidth="1" min="3" max="3" width="69.14"/>
     <col customWidth="1" min="4" max="4" width="17.14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -384,13 +522,13 @@
         <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -404,10 +542,10 @@
         <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -415,21 +553,21 @@
         <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>47</v>
@@ -441,29 +579,29 @@
         <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>52</v>
@@ -474,31 +612,321 @@
       <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4"/>
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -537,12 +965,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>2.0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -557,48 +988,60 @@
         <v>1.0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2">
         <v>2.0</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
